--- a/test/files/IDR7-Household-Questionnaire-v10-jef.xlsx
+++ b/test/files/IDR7-Household-Questionnaire-v10-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15540" tabRatio="604"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15540" tabRatio="604" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="1405">
   <si>
     <t>type</t>
   </si>
@@ -4385,6 +4385,18 @@
   </si>
   <si>
     <t>ppp_excludes</t>
+  </si>
+  <si>
+    <t>ppp_form_title::Français</t>
+  </si>
+  <si>
+    <t>ppp_form_title::English</t>
+  </si>
+  <si>
+    <t>Household Questionnaire v10</t>
+  </si>
+  <si>
+    <t>Questionnaire sur les Ménage v10</t>
   </si>
 </sst>
 </file>
@@ -4733,7 +4745,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="609">
+  <cellStyleXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4861,6 +4873,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5841,7 +5855,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="609">
+  <cellStyles count="611">
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
@@ -6145,6 +6159,7 @@
     <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
@@ -6448,6 +6463,7 @@
     <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="55" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="126"/>
@@ -6752,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IZ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
@@ -31753,10 +31769,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -31764,9 +31781,11 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>720</v>
       </c>
@@ -31785,8 +31804,14 @@
       <c r="F1" s="7" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="39" customFormat="1">
+      <c r="G1" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="39" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>1255</v>
       </c>
@@ -31804,6 +31829,12 @@
       </c>
       <c r="F2" s="24" t="s">
         <v>727</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
